--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2153,7 +2153,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2191,40 +2191,40 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U19">
-        <v>0.3777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2234,24 +2234,24 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -2417,10 +2417,10 @@
         <v>1</v>
       </c>
       <c r="T21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U21">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2447,93 +2447,191 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Nason Creek Lower 15</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <v>3</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <v>27</v>
       </c>
-      <c r="U22">
+      <c r="U23">
         <v>0.6</v>
       </c>
-      <c r="V22">
-        <v>5</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22" t="inlineStr">
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23" t="inlineStr">
         <is>
           <t>Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1178,17 +1178,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1210,16 +1210,16 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1228,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -1243,50 +1243,50 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="U9">
-        <v>0.6</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V9">
         <v>5</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1317,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -1326,60 +1326,65 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="U10">
-        <v>0.7333333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V10">
         <v>5</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1398,25 +1403,25 @@
         </is>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1434,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="U11">
-        <v>0.6444444444444445</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1450,34 +1455,34 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1496,25 +1501,25 @@
         </is>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1523,22 +1528,22 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U12">
-        <v>0.4222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1548,24 +1553,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1594,76 +1599,76 @@
         </is>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U13">
-        <v>0.7555555555555555</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V13">
         <v>5</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1692,49 +1697,49 @@
         </is>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U14">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1744,12 +1749,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -1761,7 +1766,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1799,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1817,22 +1822,22 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U15">
-        <v>0.5111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1847,19 +1852,19 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1897,40 +1902,40 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U16">
-        <v>0.5111111111111111</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1940,24 +1945,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1986,16 +1991,16 @@
         </is>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2013,22 +2018,22 @@
         <v>3</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U17">
-        <v>0.4222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2038,24 +2043,24 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2084,16 +2089,16 @@
         </is>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2108,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -2123,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U18">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2136,24 +2141,24 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2191,40 +2196,37 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>3</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="U19">
-        <v>0.4888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2234,404 +2236,15 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 12</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>17</v>
-      </c>
-      <c r="U20">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="V20">
-        <v>5</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 13</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>17</v>
-      </c>
-      <c r="U21">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="V21">
-        <v>5</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 14</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>15</v>
-      </c>
-      <c r="U22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="V22">
-        <v>5</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 15</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>3</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>27</v>
-      </c>
-      <c r="U23">
-        <v>0.6</v>
-      </c>
-      <c r="V23">
-        <v>5</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,7 +786,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -925,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -937,19 +937,19 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>35</v>
@@ -965,24 +965,24 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1026,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1050,16 +1050,16 @@
         <v>3</v>
       </c>
       <c r="T7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U7">
-        <v>0.6444444444444445</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V7">
         <v>5</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1068,19 +1068,19 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1148,10 +1148,10 @@
         <v>3</v>
       </c>
       <c r="T8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U8">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1166,29 +1166,29 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1210,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -1243,40 +1243,40 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U9">
-        <v>0.7555555555555555</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V9">
         <v>5</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1308,16 +1308,16 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -1326,55 +1326,55 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="U10">
-        <v>0.4888888888888889</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V10">
         <v>5</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1433,19 +1433,19 @@
         <v>3</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U11">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1472,7 +1472,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1570,7 +1570,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1599,49 +1599,49 @@
         </is>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>3</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U13">
-        <v>0.4222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1697,49 +1697,46 @@
         </is>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U14">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1749,12 +1746,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -1766,7 +1763,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1795,37 +1792,37 @@
         </is>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>2</v>
@@ -1834,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U15">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1847,24 +1844,24 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1893,16 +1890,16 @@
         </is>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1932,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U16">
-        <v>0.3777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1950,19 +1947,19 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2003,37 +2000,37 @@
         <v>3</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U17">
-        <v>0.3777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2043,12 +2040,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2060,7 +2057,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2113,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -2128,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U18">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2141,12 +2138,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2158,93 +2155,289 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>17</v>
+      </c>
+      <c r="U19">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Nason Creek Lower 15</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
         <v>27</v>
       </c>
-      <c r="U19">
+      <c r="U21">
         <v>0.6</v>
       </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21" t="inlineStr">
         <is>
           <t>Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,12 +435,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Riparian-CanopyCover_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Riparian-Disturbance_score</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Riparian-CanopyCover_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,76 +521,71 @@
         </is>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>5</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q2">
         <v>3</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U2">
-        <v>0.5555555555555556</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -600,7 +595,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -619,28 +614,28 @@
         </is>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -655,13 +650,13 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U3">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -669,36 +664,31 @@
       <c r="W3">
         <v>3</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Lake Creek Methow 01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lake Creek (Methow)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -717,13 +707,13 @@
         </is>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -735,31 +725,31 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>5</v>
       </c>
       <c r="T4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U4">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -769,34 +759,34 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Lake Creek Methow 02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lake Creek (Methow)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -815,86 +805,86 @@
         </is>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>5</v>
       </c>
       <c r="T5">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="U5">
-        <v>0.7777777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V5">
         <v>5</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Riparian</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -913,86 +903,86 @@
         </is>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U6">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V6">
         <v>5</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1011,13 +1001,13 @@
         </is>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1026,16 +1016,16 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -1047,50 +1037,50 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U7">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V7">
         <v>5</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1130,10 +1120,10 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -1145,13 +1135,13 @@
         <v>3</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U8">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1161,34 +1151,34 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1219,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1228,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -1243,13 +1233,13 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U9">
-        <v>0.6888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,24 +1249,24 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1307,74 +1297,71 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U10">
-        <v>0.7555555555555555</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V10">
         <v>5</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1403,37 +1390,37 @@
         </is>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>2</v>
@@ -1442,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U11">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1455,12 +1442,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1472,7 +1459,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1501,49 +1488,49 @@
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U12">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1553,12 +1540,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1570,7 +1557,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1608,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1629,19 +1616,19 @@
         <v>3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U13">
-        <v>0.5111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1656,19 +1643,19 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1699,44 +1686,47 @@
       <c r="G14">
         <v>3</v>
       </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U14">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1746,24 +1736,24 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1792,16 +1782,16 @@
         </is>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1810,31 +1800,31 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U15">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1844,24 +1834,24 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1890,16 +1880,16 @@
         </is>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1908,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -1929,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U16">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1942,24 +1932,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2003,34 +1993,31 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q17">
         <v>3</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U17">
-        <v>0.4444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2040,34 +2027,34 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Wolf Creek 01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Wolf Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2086,22 +2073,22 @@
         </is>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2110,25 +2097,25 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U18">
-        <v>0.3777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2138,34 +2125,34 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Wolf Creek 02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Wolf Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2184,262 +2171,69 @@
         </is>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="U19">
-        <v>0.3777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V19">
         <v>5</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 14</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>15</v>
-      </c>
-      <c r="U20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="V20">
-        <v>5</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 15</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>27</v>
-      </c>
-      <c r="U21">
-        <v>0.6</v>
-      </c>
-      <c r="V21">
-        <v>5</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,49 +521,49 @@
         </is>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -571,21 +571,26 @@
       <c r="W2">
         <v>3</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -626,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -641,22 +646,22 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -666,29 +671,29 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lake Creek Methow 01</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lake Creek (Methow)</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -710,16 +715,16 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -728,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -743,50 +748,45 @@
         <v>3</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="U4">
-        <v>0.5777777777777777</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V4">
         <v>5</v>
       </c>
       <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lake Creek Methow 02</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lake Creek (Methow)</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -808,16 +808,16 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -829,25 +829,25 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U5">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1070,7 +1070,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1199,9 +1199,6 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
       <c r="I9">
         <v>3</v>
       </c>
@@ -1215,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1227,19 +1224,19 @@
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U9">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1249,12 +1246,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1266,7 +1263,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1295,16 +1292,19 @@
         </is>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -1316,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -1331,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U10">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1459,7 +1459,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1488,37 +1488,37 @@
         </is>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -1527,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U12">
-        <v>0.4222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1540,24 +1540,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -1607,28 +1607,28 @@
         <v>3</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U13">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1638,12 +1638,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1655,7 +1655,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1892,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1906,23 +1906,20 @@
       <c r="O16">
         <v>3</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U16">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1932,308 +1929,17 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>27</v>
-      </c>
-      <c r="U17">
-        <v>0.6</v>
-      </c>
-      <c r="V17">
-        <v>5</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Wolf Creek 01</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Wolf Creek</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>5</v>
-      </c>
-      <c r="T18">
-        <v>18</v>
-      </c>
-      <c r="U18">
-        <v>0.4</v>
-      </c>
-      <c r="V18">
-        <v>5</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Wolf Creek 02</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Wolf Creek</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>4</v>
-      </c>
-      <c r="S19">
-        <v>5</v>
-      </c>
-      <c r="T19">
-        <v>32</v>
-      </c>
-      <c r="U19">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,22 +548,22 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2">
         <v>5</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2">
         <v>5</v>
       </c>
       <c r="T2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -646,37 +646,37 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3">
-        <v>0.7111111111111111</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V3">
         <v>5</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -808,16 +808,16 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -826,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -844,37 +844,37 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U5">
-        <v>0.5555555555555556</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V5">
         <v>5</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1028,22 +1028,22 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U7">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1070,7 +1070,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1199,6 +1199,9 @@
       <c r="G9">
         <v>3</v>
       </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
       <c r="I9">
         <v>3</v>
       </c>
@@ -1212,10 +1215,10 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1224,19 +1227,19 @@
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U9">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1246,12 +1249,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1263,7 +1266,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1292,19 +1295,16 @@
         </is>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -1316,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -1331,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U10">
-        <v>0.4222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1459,7 +1459,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1488,49 +1488,49 @@
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U12">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1540,24 +1540,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -1607,28 +1607,28 @@
         <v>3</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U13">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1638,12 +1638,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1655,7 +1655,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1851,93 +1851,191 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>21</v>
+      </c>
+      <c r="U16">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Nason Creek Lower 15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>5</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
         <v>27</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>0.6</v>
       </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,12 +420,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain_score</t>
+          <t>FloodplainConnectivity_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels_score</t>
+          <t>Off-Channel/Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -539,58 +539,58 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P2">
         <v>3</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <v>5</v>
       </c>
       <c r="T2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U2">
-        <v>0.7111111111111111</v>
+        <v>0.6</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -619,71 +619,76 @@
         </is>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>3</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3">
-        <v>0.6888888888888889</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V3">
         <v>5</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -724,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -751,42 +756,42 @@
         <v>3</v>
       </c>
       <c r="T4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U4">
-        <v>0.7333333333333333</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V4">
         <v>5</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -808,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -826,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -841,13 +846,13 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5">
-        <v>0.7555555555555555</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -855,26 +860,21 @@
       <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -906,16 +906,16 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -924,55 +924,55 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="U6">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V6">
         <v>5</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U7">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1058,19 +1058,19 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1126,22 +1126,22 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U8">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1156,19 +1156,19 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1254,19 +1254,19 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1297,6 +1297,9 @@
       <c r="G10">
         <v>3</v>
       </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
       <c r="I10">
         <v>3</v>
       </c>
@@ -1310,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1322,19 +1325,19 @@
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U10">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1344,17 +1347,17 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1445,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1452,7 +1455,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1518,19 +1521,19 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U12">
-        <v>0.4</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1540,17 +1543,17 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1625,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U13">
-        <v>0.4444444444444444</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1638,17 +1641,17 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1744,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1839,19 +1842,19 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1892,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1906,23 +1909,20 @@
       <c r="O16">
         <v>3</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U16">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1932,112 +1932,17 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>27</v>
-      </c>
-      <c r="U17">
-        <v>0.6</v>
-      </c>
-      <c r="V17">
-        <v>5</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,17 +573,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1352,19 +1352,19 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1393,37 +1393,34 @@
         </is>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>2</v>
@@ -1432,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U11">
-        <v>0.4222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1445,24 +1442,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1543,24 +1540,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1589,37 +1586,37 @@
         </is>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>2</v>
@@ -1628,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U13">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1641,24 +1638,24 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1699,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1711,25 +1708,25 @@
         <v>3</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U14">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1739,24 +1736,24 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1837,112 +1834,210 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>21</v>
+      </c>
+      <c r="U16">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Nason Creek Lower 15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>5</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
         <v>27</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>0.6</v>
       </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">Lower Chiwawa River</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity</t>
   </si>
   <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">Chiwawa River Lower 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">Chiwawa River Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Riparian-CanopyCover,Temperature-Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels,Riparian</t>
+    <t xml:space="preserve">Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
@@ -167,13 +167,10 @@
     <t xml:space="preserve">Chiwawa River Lower 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 06</t>
@@ -182,7 +179,7 @@
     <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 07</t>
@@ -191,10 +188,10 @@
     <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Middle 01</t>
@@ -203,7 +200,7 @@
     <t xml:space="preserve">Middle Chiwawa River</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
@@ -233,286 +230,238 @@
     <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Mills 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 01</t>
+    <t xml:space="preserve">Entiat River Potato 07</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River-Potato Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 02</t>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Flow-SummerBaseFlow,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolQuantity&amp;Quality,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
   </si>
   <si>
     <t xml:space="preserve">Cover-Wood,Riparian-CanopyCover</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate,Flow-SummerBaseFlow,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
+    <t xml:space="preserve">Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>5</v>
@@ -1063,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="V3" t="n">
         <v>5</v>
@@ -1125,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>5</v>
@@ -1143,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U4" t="n">
-        <v>0.511111111111111</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="V4" t="n">
         <v>5</v>
@@ -1205,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>5</v>
@@ -1223,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U5" t="n">
-        <v>0.666666666666667</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="V5" t="n">
         <v>5</v>
@@ -1285,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -1303,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U6" t="n">
-        <v>0.555555555555556</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="V6" t="n">
         <v>5</v>
@@ -1365,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -1383,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U7" t="n">
-        <v>0.511111111111111</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="V7" t="n">
         <v>5</v>
@@ -1398,15 +1347,15 @@
         <v>51</v>
       </c>
       <c r="Y7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" t="s">
         <v>52</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1445,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
@@ -1463,10 +1412,10 @@
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
@@ -1478,15 +1427,15 @@
         <v>44</v>
       </c>
       <c r="Y8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8" t="s">
         <v>55</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1525,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
@@ -1543,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U9" t="n">
-        <v>0.688888888888889</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="V9" t="n">
         <v>5</v>
@@ -1555,24 +1504,24 @@
         <v>1</v>
       </c>
       <c r="X9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>59</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1605,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>5</v>
@@ -1621,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U10" t="n">
-        <v>0.644444444444444</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="V10" t="n">
         <v>5</v>
@@ -1633,22 +1582,22 @@
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1711,24 +1660,24 @@
         <v>1</v>
       </c>
       <c r="X11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" t="s">
         <v>67</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>68</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1794,22 +1743,22 @@
         <v>30</v>
       </c>
       <c r="Y12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" t="s">
         <v>71</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -1820,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
@@ -1841,28 +1790,28 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U13" t="n">
-        <v>0.6</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="V13" t="n">
         <v>5</v>
@@ -1870,25 +1819,23 @@
       <c r="W13" t="n">
         <v>1</v>
       </c>
-      <c r="X13" t="s">
-        <v>75</v>
-      </c>
+      <c r="X13"/>
       <c r="Y13" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -1912,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
@@ -1924,51 +1871,49 @@
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V14" t="n">
         <v>5</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="s">
-        <v>80</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="X14"/>
       <c r="Y14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -1989,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
         <v>3</v>
@@ -2001,28 +1946,28 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U15" t="n">
-        <v>0.622222222222222</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="V15" t="n">
         <v>5</v>
@@ -2030,25 +1975,23 @@
       <c r="W15" t="n">
         <v>1</v>
       </c>
-      <c r="X15" t="s">
-        <v>84</v>
-      </c>
+      <c r="X15"/>
       <c r="Y15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -2072,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>3</v>
@@ -2081,28 +2024,28 @@
         <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16" t="n">
-        <v>0.711111111111111</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
@@ -2110,25 +2053,23 @@
       <c r="W16" t="n">
         <v>3</v>
       </c>
-      <c r="X16" t="s">
-        <v>88</v>
-      </c>
+      <c r="X16"/>
       <c r="Y16" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -2143,46 +2084,46 @@
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="V17" t="n">
         <v>5</v>
@@ -2191,24 +2132,24 @@
         <v>1</v>
       </c>
       <c r="X17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -2220,31 +2161,31 @@
         <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2256,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
         <v>31</v>
@@ -2270,23 +2211,25 @@
       <c r="W18" t="n">
         <v>1</v>
       </c>
-      <c r="X18"/>
+      <c r="X18" t="s">
+        <v>30</v>
+      </c>
       <c r="Y18" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="Z18" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -2298,73 +2241,75 @@
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="U19" t="n">
-        <v>0.733333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V19" t="n">
         <v>5</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
-      </c>
-      <c r="X19"/>
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>89</v>
+      </c>
       <c r="Y19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Z19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -2376,25 +2321,25 @@
         <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
@@ -2426,90 +2371,94 @@
       <c r="W20" t="n">
         <v>1</v>
       </c>
-      <c r="X20"/>
+      <c r="X20" t="s">
+        <v>94</v>
+      </c>
       <c r="Y20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>27</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z21" t="s">
         <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>33</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V21" t="n">
-        <v>5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
-      <c r="X21"/>
-      <c r="Y21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -2517,10 +2466,10 @@
         <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -2535,46 +2484,46 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U22" t="n">
-        <v>0.688888888888889</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="V22" t="n">
         <v>5</v>
@@ -2589,98 +2538,98 @@
         <v>104</v>
       </c>
       <c r="Z22" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>31</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.688888888888889</v>
-      </c>
-      <c r="V23" t="n">
-        <v>5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="s">
-        <v>30</v>
-      </c>
       <c r="Y23" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2692,49 +2641,49 @@
         <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="V24" t="n">
         <v>5</v>
@@ -2743,24 +2692,24 @@
         <v>1</v>
       </c>
       <c r="X24" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="Z24" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -2772,49 +2721,47 @@
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H25"/>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U25" t="n">
-        <v>0.644444444444444</v>
+        <v>0.488888888888889</v>
       </c>
       <c r="V25" t="n">
         <v>5</v>
@@ -2823,24 +2770,24 @@
         <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Y25" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Z25" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -2852,49 +2799,49 @@
         <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U26" t="n">
-        <v>0.6</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="V26" t="n">
         <v>5</v>
@@ -2903,24 +2850,24 @@
         <v>1</v>
       </c>
       <c r="X26" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Y26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Z26" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -2932,31 +2879,31 @@
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2971,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="U27" t="n">
-        <v>0.533333333333333</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="V27" t="n">
         <v>5</v>
@@ -2983,24 +2930,24 @@
         <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Z27" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -3021,13 +2968,13 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -3042,19 +2989,19 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U28" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="V28" t="n">
         <v>5</v>
@@ -3063,182 +3010,184 @@
         <v>1</v>
       </c>
       <c r="X28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Y28" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="Z28" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>21</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
         <v>120</v>
       </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" t="n">
-        <v>25</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="V29" t="n">
-        <v>5</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>121</v>
       </c>
-      <c r="Y29" t="s">
-        <v>69</v>
-      </c>
       <c r="Z29" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>21</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
         <v>120</v>
       </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30"/>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>24</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="V30" t="n">
-        <v>5</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" t="s">
-        <v>130</v>
-      </c>
       <c r="Y30" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Z30" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -3250,49 +3199,47 @@
         <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>3</v>
       </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+      <c r="P31"/>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U31" t="n">
-        <v>0.422222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V31" t="n">
         <v>5</v>
@@ -3301,24 +3248,24 @@
         <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y31" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Z31" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -3330,49 +3277,47 @@
         <v>29</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
         <v>3</v>
       </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
+      <c r="P32"/>
       <c r="Q32" t="n">
         <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U32" t="n">
-        <v>0.422222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V32" t="n">
         <v>5</v>
@@ -3381,24 +3326,24 @@
         <v>1</v>
       </c>
       <c r="X32" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y32" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Z32" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -3419,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
         <v>5</v>
@@ -3431,54 +3376,54 @@
         <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="U33" t="n">
-        <v>0.533333333333333</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V33" t="n">
         <v>5</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Y33" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Z33" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -3499,66 +3444,66 @@
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="U34" t="n">
-        <v>0.466666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V34" t="n">
         <v>5</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="Y34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Z34" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
@@ -3570,13 +3515,13 @@
         <v>29</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -3585,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
         <v>3</v>
@@ -3597,22 +3542,22 @@
         <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U35" t="n">
-        <v>0.466666666666667</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="V35" t="n">
         <v>5</v>
@@ -3621,24 +3566,24 @@
         <v>1</v>
       </c>
       <c r="X35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Y35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Z35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -3650,25 +3595,25 @@
         <v>29</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="n">
         <v>3</v>
@@ -3676,7 +3621,9 @@
       <c r="O36" t="n">
         <v>3</v>
       </c>
-      <c r="P36"/>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
@@ -3687,10 +3634,10 @@
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U36" t="n">
-        <v>0.6</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="V36" t="n">
         <v>5</v>
@@ -3699,24 +3646,24 @@
         <v>1</v>
       </c>
       <c r="X36" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Y36" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Z36" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
@@ -3728,25 +3675,25 @@
         <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
         <v>3</v>
@@ -3754,7 +3701,9 @@
       <c r="O37" t="n">
         <v>3</v>
       </c>
-      <c r="P37"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
       <c r="Q37" t="n">
         <v>3</v>
       </c>
@@ -3765,10 +3714,10 @@
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U37" t="n">
-        <v>0.6</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="V37" t="n">
         <v>5</v>
@@ -3777,24 +3726,24 @@
         <v>1</v>
       </c>
       <c r="X37" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Y37" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Z37" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -3818,7 +3767,7 @@
         <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>5</v>
@@ -3827,54 +3776,54 @@
         <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U38" t="n">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V38" t="n">
         <v>5</v>
       </c>
       <c r="W38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="Y38" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Z38" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -3898,7 +3847,7 @@
         <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>5</v>
@@ -3907,54 +3856,54 @@
         <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U39" t="n">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V39" t="n">
         <v>5</v>
       </c>
       <c r="W39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X39" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="Y39" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Z39" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -3966,49 +3915,49 @@
         <v>29</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
         <v>4</v>
       </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3</v>
-      </c>
-      <c r="O40" t="n">
-        <v>3</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U40" t="n">
-        <v>0.622222222222222</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V40" t="n">
         <v>5</v>
@@ -4017,24 +3966,24 @@
         <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="Y40" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Z40" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -4049,381 +3998,61 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
         <v>4</v>
       </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="U41" t="n">
-        <v>0.622222222222222</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V41" t="n">
         <v>5</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X41" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="Y41" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="Z41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3</v>
-      </c>
-      <c r="O42" t="n">
-        <v>3</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>28</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.622222222222222</v>
-      </c>
-      <c r="V42" t="n">
-        <v>5</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
-      <c r="T43" t="n">
-        <v>30</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="V43" t="n">
-        <v>5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1</v>
-      </c>
-      <c r="X43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>30</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="V44" t="n">
-        <v>5</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
-      <c r="T45" t="n">
-        <v>30</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="V45" t="n">
-        <v>5</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -104,112 +104,211 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Flow-SummerBaseFlow,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiwawa River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Chiwawa River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
+    <t xml:space="preserve">Off-Channel/Side-Channels,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
+    <t xml:space="preserve">Cover-Wood,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 05</t>
   </si>
   <si>
     <t xml:space="preserve">BankStability,Cover-Wood,FloodplainConnectivity,Riparian-Disturbance</t>
@@ -221,24 +320,102 @@
     <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow</t>
   </si>
   <si>
     <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Mills 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Off-Channel/Side-Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Flow-SummerBaseFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Flow-SummerBaseFlow,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 07</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
   </si>
   <si>
@@ -248,7 +425,7 @@
     <t xml:space="preserve">Entiat River-Preston Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 02</t>
@@ -257,10 +434,10 @@
     <t xml:space="preserve">Entiat River Preston 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Riparian-Disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
   </si>
   <si>
     <t xml:space="preserve">BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
@@ -269,10 +446,58 @@
     <t xml:space="preserve">Entiat River Preston 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Flow-SummerBaseFlow,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stability,CoarseSubstrate,Off-Channel/Side-Channels,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Mad River Lower 01</t>
@@ -281,13 +506,10 @@
     <t xml:space="preserve">Lower Mad River</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate,Flow-SummerBaseFlow,Riparian-Disturbance,Riparian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Mad River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Rattlesnake 04</t>
@@ -296,10 +518,10 @@
     <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+    <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
@@ -338,10 +560,10 @@
     <t xml:space="preserve">Nason Creek Lower 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity</t>
   </si>
   <si>
     <t xml:space="preserve">BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
@@ -362,10 +584,10 @@
     <t xml:space="preserve">Nason Creek Lower 11</t>
   </si>
   <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
@@ -380,28 +602,34 @@
     <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nason Creek Lower 13</t>
   </si>
   <si>
+    <t xml:space="preserve">Nason Creek Lower 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 15</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature-Rearing</t>
   </si>
   <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Nason Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Nason Creek</t>
+    <t xml:space="preserve">Rock Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Middle 01</t>
@@ -410,7 +638,7 @@
     <t xml:space="preserve">Middle Twisp River</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
@@ -422,46 +650,115 @@
     <t xml:space="preserve">Twisp River Middle 03</t>
   </si>
   <si>
+    <t xml:space="preserve">Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover-Wood,Temperature-Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
-    <t xml:space="preserve">ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Twisp River Middle 05</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Middle 07</t>
   </si>
   <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
     <t xml:space="preserve">BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
   </si>
   <si>
-    <t xml:space="preserve">Twisp River Middle 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
+    <t xml:space="preserve">White River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate,Riparian-CanopyCover,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel/Side-Channels,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
   </si>
   <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Riparian-CanopyCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
+    <t xml:space="preserve">Cover-Wood,Riparian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian,Temperature-Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
   </si>
 </sst>
 </file>
@@ -920,22 +1217,22 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V2" t="n">
         <v>5</v>
@@ -973,13 +1270,13 @@
         <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -988,34 +1285,34 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U3" t="n">
-        <v>0.555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V3" t="n">
         <v>5</v>
@@ -1041,7 +1338,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -1052,23 +1349,21 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
+      <c r="G4"/>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -1077,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1092,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>0.466666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V4" t="n">
         <v>5</v>
@@ -1104,24 +1399,24 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -1133,13 +1428,13 @@
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1151,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -1160,22 +1455,22 @@
         <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U5" t="n">
-        <v>0.577777777777778</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="V5" t="n">
         <v>5</v>
@@ -1184,24 +1479,24 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -1213,13 +1508,13 @@
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -1243,19 +1538,19 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U6" t="n">
-        <v>0.511111111111111</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="V6" t="n">
         <v>5</v>
@@ -1264,24 +1559,24 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1317,25 +1612,25 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="U7" t="n">
-        <v>0.422222222222222</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="V7" t="n">
         <v>5</v>
@@ -1344,24 +1639,24 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Y7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1397,25 +1692,25 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U8" t="n">
-        <v>0.577777777777778</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
@@ -1424,24 +1719,24 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Y8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1468,34 +1763,34 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="U9" t="n">
-        <v>0.644444444444444</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="V9" t="n">
         <v>5</v>
@@ -1504,24 +1799,24 @@
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1548,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1557,23 +1852,25 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10"/>
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U10" t="n">
-        <v>0.555555555555556</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="V10" t="n">
         <v>5</v>
@@ -1582,103 +1879,105 @@
         <v>1</v>
       </c>
       <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
         <v>62</v>
       </c>
-      <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>28</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.622222222222222</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>27</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>66</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>67</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -1704,60 +2003,60 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="U12" t="n">
-        <v>0.711111111111111</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="V12" t="n">
         <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -1769,49 +2068,49 @@
         <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U13" t="n">
-        <v>0.688888888888889</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="V13" t="n">
         <v>5</v>
@@ -1819,23 +2118,25 @@
       <c r="W13" t="n">
         <v>1</v>
       </c>
-      <c r="X13"/>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
       <c r="Y13" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -1847,49 +2148,49 @@
         <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U14" t="n">
-        <v>0.733333333333333</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V14" t="n">
         <v>5</v>
@@ -1897,23 +2198,25 @@
       <c r="W14" t="n">
         <v>3</v>
       </c>
-      <c r="X14"/>
+      <c r="X14" t="s">
+        <v>77</v>
+      </c>
       <c r="Y14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -1925,151 +2228,155 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U15" t="n">
-        <v>0.644444444444444</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V15" t="n">
         <v>5</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15"/>
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
+        <v>82</v>
+      </c>
       <c r="Y15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Z15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>31</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.688888888888889</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>33</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>3</v>
-      </c>
-      <c r="X16"/>
       <c r="Y16" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -2105,51 +2412,51 @@
         <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U17" t="n">
-        <v>0.688888888888889</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V17" t="n">
         <v>5</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="Y17" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Z17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -2161,13 +2468,13 @@
         <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -2185,13 +2492,13 @@
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
@@ -2200,37 +2507,37 @@
         <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U18" t="n">
-        <v>0.688888888888889</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V18" t="n">
         <v>5</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X18" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="Y18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Z18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -2241,16 +2548,16 @@
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2259,111 +2566,111 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="U19" t="n">
-        <v>0.4</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V19" t="n">
         <v>5</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Z19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>29</v>
-      </c>
       <c r="U20" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="V20" t="n">
         <v>5</v>
@@ -2372,24 +2679,24 @@
         <v>1</v>
       </c>
       <c r="X20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -2401,75 +2708,75 @@
         <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U21" t="n">
-        <v>0.6</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V21" t="n">
         <v>5</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Y21" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="Z21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -2496,10 +2803,10 @@
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
@@ -2511,19 +2818,19 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U22" t="n">
-        <v>0.533333333333333</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="V22" t="n">
         <v>5</v>
@@ -2532,24 +2839,24 @@
         <v>1</v>
       </c>
       <c r="X22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Y22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Z22" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -2561,49 +2868,49 @@
         <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U23" t="n">
-        <v>0.555555555555556</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="V23" t="n">
         <v>5</v>
@@ -2612,24 +2919,24 @@
         <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Y23" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="Z23" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2641,49 +2948,49 @@
         <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U24" t="n">
-        <v>0.555555555555556</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="V24" t="n">
         <v>5</v>
@@ -2692,24 +2999,24 @@
         <v>1</v>
       </c>
       <c r="X24" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Y24" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="Z24" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -2721,23 +3028,25 @@
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25"/>
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -2746,22 +3055,22 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U25" t="n">
-        <v>0.488888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V25" t="n">
         <v>5</v>
@@ -2770,24 +3079,24 @@
         <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Y25" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Z25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -2802,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
@@ -2823,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2835,13 +3144,13 @@
         <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U26" t="n">
-        <v>0.422222222222222</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="V26" t="n">
         <v>5</v>
@@ -2850,24 +3159,24 @@
         <v>1</v>
       </c>
       <c r="X26" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y26" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Z26" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -2879,16 +3188,16 @@
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -2897,31 +3206,31 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U27" t="n">
-        <v>0.422222222222222</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="V27" t="n">
         <v>5</v>
@@ -2930,25 +3239,25 @@
         <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Z27" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
         <v>115</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -2959,22 +3268,22 @@
         <v>29</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -2983,51 +3292,51 @@
         <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="U28" t="n">
-        <v>0.533333333333333</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V28" t="n">
         <v>5</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Z28" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -3048,10 +3357,10 @@
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>3</v>
@@ -3063,25 +3372,25 @@
         <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="U29" t="n">
-        <v>0.466666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V29" t="n">
         <v>5</v>
@@ -3090,24 +3399,24 @@
         <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Z29" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -3128,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>3</v>
@@ -3143,51 +3452,51 @@
         <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="U30" t="n">
-        <v>0.466666666666667</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V30" t="n">
         <v>5</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X30" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="Y30" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Z30" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -3208,13 +3517,13 @@
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -3225,21 +3534,23 @@
       <c r="O31" t="n">
         <v>3</v>
       </c>
-      <c r="P31"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U31" t="n">
-        <v>0.6</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="V31" t="n">
         <v>5</v>
@@ -3248,24 +3559,24 @@
         <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="Y31" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Z31" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -3286,13 +3597,13 @@
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3301,49 +3612,51 @@
         <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
-      </c>
-      <c r="P32"/>
+        <v>5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" t="n">
         <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U32" t="n">
-        <v>0.6</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V32" t="n">
         <v>5</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X32" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="Y32" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Z32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -3358,72 +3671,72 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U33" t="n">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V33" t="n">
         <v>5</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X33" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="Y33" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Z33" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -3435,75 +3748,75 @@
         <v>29</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
         <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U34" t="n">
-        <v>0.777777777777778</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="V34" t="n">
         <v>5</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X34" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Z34" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
@@ -3515,22 +3828,22 @@
         <v>29</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -3542,22 +3855,22 @@
         <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T35" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U35" t="n">
-        <v>0.622222222222222</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V35" t="n">
         <v>5</v>
@@ -3566,24 +3879,24 @@
         <v>1</v>
       </c>
       <c r="X35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Y35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Z35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -3595,13 +3908,13 @@
         <v>29</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -3610,34 +3923,34 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="U36" t="n">
-        <v>0.622222222222222</v>
+        <v>0.288888888888889</v>
       </c>
       <c r="V36" t="n">
         <v>5</v>
@@ -3646,24 +3959,24 @@
         <v>1</v>
       </c>
       <c r="X36" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Y36" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Z36" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
@@ -3675,49 +3988,49 @@
         <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="U37" t="n">
-        <v>0.622222222222222</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="V37" t="n">
         <v>5</v>
@@ -3726,24 +4039,24 @@
         <v>1</v>
       </c>
       <c r="X37" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="Y37" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="Z37" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -3764,13 +4077,13 @@
         <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
@@ -3782,22 +4095,22 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="U38" t="n">
-        <v>0.666666666666667</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="V38" t="n">
         <v>5</v>
@@ -3806,24 +4119,24 @@
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="Y38" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="Z38" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -3835,25 +4148,25 @@
         <v>29</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
         <v>3</v>
@@ -3862,22 +4175,22 @@
         <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U39" t="n">
-        <v>0.666666666666667</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="V39" t="n">
         <v>5</v>
@@ -3886,24 +4199,24 @@
         <v>1</v>
       </c>
       <c r="X39" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="Y39" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Z39" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -3915,49 +4228,49 @@
         <v>29</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U40" t="n">
-        <v>0.666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="V40" t="n">
         <v>5</v>
@@ -3966,93 +4279,2651 @@
         <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="Y40" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="Z40" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>31</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.688888888888889</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="n">
+        <v>28</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.622222222222222</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>27</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>24</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>25</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>25</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>19</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>19</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>19</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>21</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="V50" t="n">
+        <v>5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>21</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>21</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="V52" t="n">
+        <v>5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>19</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="V53" t="n">
+        <v>5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>27</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V54" t="n">
+        <v>5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>26</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.577777777777778</v>
+      </c>
+      <c r="V55" t="n">
+        <v>5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
         <v>4</v>
       </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>30</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="V56" t="n">
+        <v>5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
         <v>34</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U57" t="n">
         <v>0.755555555555556</v>
       </c>
-      <c r="V41" t="n">
-        <v>5</v>
-      </c>
-      <c r="W41" t="n">
-        <v>3</v>
-      </c>
-      <c r="X41" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>149</v>
+      <c r="V57" t="n">
+        <v>5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>3</v>
+      </c>
+      <c r="X57" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>34</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.755555555555556</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>3</v>
+      </c>
+      <c r="X58" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>27</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>28</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.622222222222222</v>
+      </c>
+      <c r="V60" t="n">
+        <v>5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>27</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>29</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.644444444444444</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="n">
+        <v>29</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.644444444444444</v>
+      </c>
+      <c r="V63" t="n">
+        <v>5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>30</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="V64" t="n">
+        <v>5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1</v>
+      </c>
+      <c r="X64" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>22</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.488888888888889</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="n">
+        <v>20</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="V66" t="n">
+        <v>5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1</v>
+      </c>
+      <c r="X66" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="n">
+        <v>22</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.488888888888889</v>
+      </c>
+      <c r="V67" t="n">
+        <v>5</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1</v>
+      </c>
+      <c r="X67" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="n">
+        <v>22</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.488888888888889</v>
+      </c>
+      <c r="V68" t="n">
+        <v>5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1</v>
+      </c>
+      <c r="X68" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="n">
+        <v>21</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>33</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="V70" t="n">
+        <v>5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>3</v>
+      </c>
+      <c r="X70" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>35</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>3</v>
+      </c>
+      <c r="X71" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="n">
+        <v>33</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="V72" t="n">
+        <v>5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>3</v>
+      </c>
+      <c r="X72" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="n">
+        <v>33</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="V73" t="n">
+        <v>5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>3</v>
+      </c>
+      <c r="X73" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
